--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -113,9 +113,6 @@
     <t>Shark</t>
   </si>
   <si>
-    <t>3.1-3</t>
-  </si>
-  <si>
     <t>http://shark.ow2.org</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>1.8.1</t>
+  </si>
+  <si>
+    <t>3.2-2</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -782,15 +782,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -802,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -824,13 +824,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>17</v>
@@ -839,19 +839,19 @@
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="E5" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="18"/>
     </row>
@@ -872,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -893,7 +893,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3">
         <v>1.7</v>
@@ -923,7 +923,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="20"/>
     </row>
@@ -932,19 +932,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -952,7 +952,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>30</v>
@@ -961,10 +961,10 @@
         <v>31</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6">

--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t xml:space="preserve">Third party library </t>
   </si>
@@ -113,9 +113,6 @@
     <t>Shark</t>
   </si>
   <si>
-    <t>http://shark.ow2.org</t>
-  </si>
-  <si>
     <t>1.0.b3</t>
   </si>
   <si>
@@ -177,6 +174,27 @@
   </si>
   <si>
     <t>3.2-2</t>
+  </si>
+  <si>
+    <t>xalan.jar</t>
+  </si>
+  <si>
+    <t>2.7-1</t>
+  </si>
+  <si>
+    <t>Xalan</t>
+  </si>
+  <si>
+    <t>http://xml.apache.org/xalan-j/downloads.html</t>
+  </si>
+  <si>
+    <t>http://sourceforge.net/projects/sharkwf/files</t>
+  </si>
+  <si>
+    <t>http://www.apache.org/licenses/LICENSE-2.0</t>
+  </si>
+  <si>
+    <t>serializer.jar</t>
   </si>
 </sst>
 </file>
@@ -367,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -446,6 +464,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -749,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -782,15 +812,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -802,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -810,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -824,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>17</v>
@@ -839,19 +869,19 @@
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="E5" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="18"/>
     </row>
@@ -872,7 +902,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -893,7 +923,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3">
         <v>1.7</v>
@@ -923,7 +953,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="20"/>
     </row>
@@ -932,19 +962,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -952,7 +982,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>30</v>
@@ -961,35 +991,91 @@
         <v>31</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="25" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="32.25" customHeight="1">
+      <c r="A18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -999,10 +1085,10 @@
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F8"/>
   </mergeCells>

--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="121">
   <si>
     <t>No.</t>
   </si>
@@ -371,6 +371,15 @@
   </si>
   <si>
     <t>JGraph</t>
+  </si>
+  <si>
+    <t>Using Release.</t>
+  </si>
+  <si>
+    <t>Used version</t>
+  </si>
+  <si>
+    <t>1.4.0.5</t>
   </si>
 </sst>
 </file>
@@ -576,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -707,6 +716,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -716,21 +734,90 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -740,83 +827,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1114,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1128,109 +1146,132 @@
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="34.140625" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="73"/>
-    </row>
-    <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="70"/>
+      <c r="J1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.5">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="10" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="33"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="71">
         <v>40305</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="71">
+        <v>40305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="33"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="58"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5" s="74"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="33"/>
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="59"/>
-    </row>
-    <row r="7" spans="1:8" ht="25.5">
+      <c r="C6" s="75"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="72"/>
+    </row>
+    <row r="7" spans="1:10" ht="25.5">
       <c r="A7" s="33"/>
       <c r="B7" s="3" t="s">
         <v>84</v>
@@ -1253,22 +1294,30 @@
       <c r="H7" s="5">
         <v>39541</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="5">
+        <v>39541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="33">
         <v>2</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="1:8" ht="43.5" customHeight="1">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+    </row>
+    <row r="9" spans="1:10" ht="43.5" customHeight="1">
       <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
         <v>85</v>
@@ -1291,22 +1340,30 @@
       <c r="H9" s="5">
         <v>40268</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="5">
+        <v>40368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="33">
         <v>3</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-    </row>
-    <row r="11" spans="1:8" ht="25.5">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5">
       <c r="A11" s="33"/>
       <c r="B11" s="13" t="s">
         <v>91</v>
@@ -1329,22 +1386,30 @@
       <c r="H11" s="7">
         <v>40282</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="7">
+        <v>40282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="33">
         <v>4</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-    </row>
-    <row r="13" spans="1:8" ht="25.5">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.5">
       <c r="A13" s="33"/>
       <c r="B13" s="40" t="s">
         <v>101</v>
@@ -1365,22 +1430,30 @@
       <c r="H13" s="44">
         <v>37485</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="44">
+        <v>37485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="33">
         <v>5</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-    </row>
-    <row r="15" spans="1:8" ht="25.5">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5">
       <c r="A15" s="33"/>
       <c r="B15" s="40" t="s">
         <v>107</v>
@@ -1401,58 +1474,72 @@
         <v>112</v>
       </c>
       <c r="H15" s="44"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="44"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="33">
         <v>6</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-    </row>
-    <row r="17" spans="1:8" ht="33.75" customHeight="1">
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+    </row>
+    <row r="17" spans="1:10" ht="33.75" customHeight="1">
       <c r="A17" s="33"/>
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="79">
+      <c r="G17" s="55">
         <v>2.46</v>
       </c>
-      <c r="H17" s="81">
+      <c r="H17" s="57">
         <v>40153</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="55">
+        <v>2.46</v>
+      </c>
+      <c r="J17" s="57">
+        <v>40153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="33"/>
       <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="82"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="C18" s="78"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="33">
         <v>7</v>
       </c>
@@ -1465,8 +1552,10 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" ht="63">
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="63">
       <c r="A20" s="33"/>
       <c r="B20" s="18" t="s">
         <v>38</v>
@@ -1489,8 +1578,14 @@
       <c r="H20" s="5">
         <v>38123</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="31.5">
+      <c r="I20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="5">
+        <v>38123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="31.5">
       <c r="A21" s="33"/>
       <c r="B21" s="18" t="s">
         <v>43</v>
@@ -1511,8 +1606,12 @@
         <v>1.7</v>
       </c>
       <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="33"/>
       <c r="B22" s="17" t="s">
         <v>48</v>
@@ -1531,8 +1630,12 @@
         <v>1.4</v>
       </c>
       <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="26">
+        <v>1.4</v>
+      </c>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="33"/>
       <c r="B23" s="17" t="s">
         <v>51</v>
@@ -1551,8 +1654,12 @@
         <v>29</v>
       </c>
       <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" ht="73.5">
+      <c r="I23" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" ht="73.5">
       <c r="A24" s="33"/>
       <c r="B24" s="18" t="s">
         <v>52</v>
@@ -1575,8 +1682,14 @@
       <c r="H24" s="5">
         <v>39665</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="J24" s="5">
+        <v>39665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="33"/>
       <c r="B25" s="17" t="s">
         <v>57</v>
@@ -1597,22 +1710,28 @@
         <v>61</v>
       </c>
       <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="33">
         <v>8</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48"/>
-    </row>
-    <row r="27" spans="1:8" ht="25.5">
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
+    </row>
+    <row r="27" spans="1:10" ht="25.5">
       <c r="A27" s="33"/>
       <c r="B27" s="17" t="s">
         <v>69</v>
@@ -1635,8 +1754,14 @@
       <c r="H27" s="5">
         <v>39340</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" s="5">
+        <v>39340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="34"/>
       <c r="B28" s="29" t="s">
         <v>70</v>
@@ -1645,74 +1770,88 @@
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="33">
         <v>9</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="51"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="33"/>
       <c r="B30" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="71">
         <v>39408</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="71">
+        <v>39408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="33"/>
       <c r="B31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="59"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="C31" s="85"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="72"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="15">
         <v>10</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
-    </row>
-    <row r="33" spans="1:8" ht="52.5">
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51"/>
+    </row>
+    <row r="33" spans="1:10" ht="52.5">
       <c r="A33" s="28"/>
       <c r="B33" s="18" t="s">
         <v>93</v>
@@ -1729,28 +1868,36 @@
       <c r="F33" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="48" t="s">
         <v>83</v>
       </c>
       <c r="H33" s="5">
         <v>39358</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="5">
+        <v>39358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="33">
         <v>11</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="48"/>
-    </row>
-    <row r="35" spans="1:8" ht="52.5">
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51"/>
+    </row>
+    <row r="35" spans="1:10" ht="52.5">
       <c r="A35" s="35"/>
       <c r="B35" s="18" t="s">
         <v>72</v>
@@ -1767,73 +1914,86 @@
       <c r="F35" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="48" t="s">
         <v>77</v>
       </c>
       <c r="H35" s="5">
         <v>40015</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I35" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="5">
+        <v>40015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="50" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="50"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="B39" s="79"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="45" t="s">
         <v>115</v>
       </c>
       <c r="B40" s="45"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
+  <mergeCells count="43">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H4:H6"/>
     <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B8:J8"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>

--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -207,9 +207,6 @@
     <t>Xalan</t>
   </si>
   <si>
-    <t>serializer.ajr</t>
-  </si>
-  <si>
     <t>Xalan-Java is an XSLT processor for transforming XML documents into HTML, text, or other XML document types.</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>1.4.0.5</t>
+  </si>
+  <si>
+    <t>serializer.jar</t>
   </si>
 </sst>
 </file>
@@ -725,6 +725,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -734,107 +764,77 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1134,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,42 +1150,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.5">
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="64"/>
-    </row>
-    <row r="2" spans="1:10" ht="22.5">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>7</v>
@@ -1201,45 +1201,45 @@
       <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="33"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="71">
+      <c r="H4" s="56">
         <v>40305</v>
       </c>
-      <c r="I4" s="80" t="s">
+      <c r="I4" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="56">
         <v>40305</v>
       </c>
     </row>
@@ -1248,33 +1248,33 @@
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="83"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="33"/>
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="72"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10" ht="25.5">
       <c r="A7" s="33"/>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -1305,43 +1305,43 @@
       <c r="A8" s="33">
         <v>2</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
+      <c r="B8" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:10" ht="43.5" customHeight="1">
       <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="H9" s="5">
         <v>40268</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J9" s="5">
         <v>40368</v>
@@ -1351,22 +1351,22 @@
       <c r="A10" s="33">
         <v>3</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="B10" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
     </row>
     <row r="11" spans="1:10" ht="25.5">
       <c r="A11" s="33"/>
       <c r="B11" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>34</v>
@@ -1381,13 +1381,13 @@
         <v>35</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="7">
         <v>40282</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="7">
         <v>40282</v>
@@ -1397,41 +1397,41 @@
       <c r="A12" s="33">
         <v>4</v>
       </c>
-      <c r="B12" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="B12" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:10" ht="25.5">
       <c r="A13" s="33"/>
       <c r="B13" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="D13" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="E13" s="42" t="s">
         <v>103</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>104</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="44">
         <v>37485</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J13" s="44">
         <v>37485</v>
@@ -1441,41 +1441,41 @@
       <c r="A14" s="33">
         <v>5</v>
       </c>
-      <c r="B14" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
+      <c r="B14" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:10" ht="25.5">
       <c r="A15" s="33"/>
       <c r="B15" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="D15" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="E15" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="F15" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="G15" s="43" t="s">
         <v>111</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>112</v>
       </c>
       <c r="H15" s="44"/>
       <c r="I15" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J15" s="44"/>
     </row>
@@ -1483,45 +1483,45 @@
       <c r="A16" s="33">
         <v>6</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" ht="33.75" customHeight="1">
       <c r="A17" s="33"/>
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="64">
         <v>2.46</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="68">
         <v>40153</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="64">
         <v>2.46</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="68">
         <v>40153</v>
       </c>
     </row>
@@ -1530,14 +1530,14 @@
       <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="58"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="69"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="33">
@@ -1719,43 +1719,43 @@
       <c r="A26" s="33">
         <v>8</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="51"/>
+      <c r="B26" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="1:10" ht="25.5">
       <c r="A27" s="33"/>
       <c r="B27" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="E27" s="39" t="s">
         <v>96</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>97</v>
       </c>
       <c r="F27" s="39" t="s">
         <v>56</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H27" s="5">
         <v>39340</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J27" s="5">
         <v>39340</v>
@@ -1764,7 +1764,7 @@
     <row r="28" spans="1:10">
       <c r="A28" s="34"/>
       <c r="B28" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
@@ -1779,103 +1779,103 @@
       <c r="A29" s="33">
         <v>9</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="33"/>
       <c r="B30" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="D30" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="E30" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="F30" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="71">
+      <c r="H30" s="56">
         <v>39408</v>
       </c>
-      <c r="I30" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="71">
+      <c r="I30" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="56">
         <v>39408</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="33"/>
       <c r="B31" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="72"/>
+        <v>67</v>
+      </c>
+      <c r="C31" s="63"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="15">
         <v>10</v>
       </c>
-      <c r="B32" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="51"/>
+      <c r="B32" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="61"/>
     </row>
     <row r="33" spans="1:10" ht="52.5">
       <c r="A33" s="28"/>
       <c r="B33" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="E33" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="F33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="G33" s="48" t="s">
         <v>82</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>83</v>
       </c>
       <c r="H33" s="5">
         <v>39358</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J33" s="5">
         <v>39358</v>
@@ -1885,43 +1885,43 @@
       <c r="A34" s="33">
         <v>11</v>
       </c>
-      <c r="B34" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="51"/>
+      <c r="B34" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="61"/>
     </row>
     <row r="35" spans="1:10" ht="52.5">
       <c r="A35" s="35"/>
       <c r="B35" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="E35" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="F35" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="G35" s="48" t="s">
         <v>76</v>
-      </c>
-      <c r="G35" s="48" t="s">
-        <v>77</v>
       </c>
       <c r="H35" s="5">
         <v>40015</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J35" s="5">
         <v>40015</v>
@@ -1929,28 +1929,55 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="49" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="79"/>
+      <c r="B39" s="49"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="45"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="I4:I6"/>
@@ -1967,33 +1994,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>

--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
   <si>
     <t>The Logging package is an ultra-thin bridge between different logging implementations. A library that uses the commons-logging API can be used with any logging implementation at runtime.</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>AGPL</t>
+  </si>
+  <si>
+    <t>Version 1.4.0.5 completely changed the concepts</t>
+  </si>
+  <si>
+    <t>Will be upgraded for the next release cycle</t>
   </si>
 </sst>
 </file>
@@ -354,7 +360,7 @@
     <numFmt numFmtId="166" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -375,12 +381,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -461,15 +461,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,19 +515,16 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,17 +542,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -923,24 +935,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="25" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="27" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="27" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="25" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -950,19 +962,19 @@
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -977,7 +989,7 @@
       <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -994,11 +1006,11 @@
       <c r="D2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1007,19 +1019,15 @@
       <c r="I2" s="2">
         <v>40305</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="2">
-        <v>40305</v>
-      </c>
-      <c r="L2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" ht="49.5" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1028,11 +1036,11 @@
       <c r="D3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1041,19 +1049,15 @@
       <c r="I3" s="2">
         <v>39541</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2">
-        <v>39541</v>
-      </c>
-      <c r="L3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" ht="41.25" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1062,26 +1066,22 @@
       <c r="D4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="20">
         <v>40282</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="21">
-        <v>40282</v>
-      </c>
-      <c r="L4" s="2"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12" ht="85.5" customHeight="1">
       <c r="A5" s="1">
@@ -1096,13 +1096,13 @@
       <c r="D5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H5" s="12" t="s">
@@ -1117,13 +1117,15 @@
       <c r="K5" s="2">
         <v>40368</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="29" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="47.25" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1132,11 +1134,11 @@
       <c r="D6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>53</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>56</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -1145,19 +1147,15 @@
       <c r="I6" s="2">
         <v>37485</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="2">
-        <v>37485</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" s="24" customFormat="1" ht="123.75" customHeight="1">
+      <c r="J6" s="12"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" s="23" customFormat="1" ht="123.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1166,13 +1164,13 @@
       <c r="D7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>91</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -1181,19 +1179,15 @@
       <c r="I7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="2"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="114.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1202,26 +1196,22 @@
       <c r="D8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>78</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>39358</v>
       </c>
-      <c r="J8" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="23">
-        <v>39358</v>
-      </c>
-      <c r="L8" s="2"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="1:12" ht="59.25" customHeight="1">
       <c r="A9" s="13">
@@ -1236,11 +1226,11 @@
       <c r="D9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="18" t="str">
+      <c r="G9" s="17" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
@@ -1250,13 +1240,9 @@
       <c r="I9" s="14">
         <v>39408</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="14">
-        <v>39408</v>
-      </c>
-      <c r="L9" s="14"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" ht="60.75" customHeight="1">
       <c r="A10" s="13">
@@ -1271,11 +1257,11 @@
       <c r="D10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="18" t="str">
+      <c r="G10" s="17" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
@@ -1291,7 +1277,9 @@
       <c r="K10" s="14">
         <v>40344</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="30" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="52.5" customHeight="1">
       <c r="A11" s="13">
@@ -1306,11 +1294,11 @@
       <c r="D11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="18" t="str">
+      <c r="G11" s="17" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
@@ -1326,7 +1314,9 @@
       <c r="K11" s="14">
         <v>40371</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="26" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="147.75" customHeight="1">
       <c r="A12" s="1"/>
@@ -1339,11 +1329,11 @@
       <c r="D12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="18" t="str">
+      <c r="G12" s="17" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
@@ -1359,7 +1349,7 @@
       <c r="K12" s="14">
         <v>40371</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:12" ht="119.25" customHeight="1">
       <c r="A13" s="1"/>
@@ -1372,11 +1362,11 @@
       <c r="D13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1385,13 +1375,9 @@
       <c r="I13" s="2">
         <v>38123</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="2">
-        <v>38123</v>
-      </c>
-      <c r="L13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:12" ht="69" customHeight="1">
       <c r="A14" s="1"/>
@@ -1404,11 +1390,11 @@
       <c r="D14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="1">
@@ -1417,13 +1403,9 @@
       <c r="I14" s="2">
         <v>39456</v>
       </c>
-      <c r="J14" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="K14" s="2">
-        <v>39456</v>
-      </c>
-      <c r="L14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:12" ht="31.5" customHeight="1">
       <c r="A15" s="1"/>
@@ -1436,11 +1418,11 @@
       <c r="D15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="18" t="str">
+      <c r="F15" s="26"/>
+      <c r="G15" s="17" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
@@ -1450,13 +1432,9 @@
       <c r="I15" s="2">
         <v>39467</v>
       </c>
-      <c r="J15" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="K15" s="2">
-        <v>39467</v>
-      </c>
-      <c r="L15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12" ht="63" customHeight="1">
       <c r="A16" s="1"/>
@@ -1469,12 +1447,12 @@
       <c r="D16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="18" t="str">
+      <c r="E16" s="17" t="str">
         <f>HYPERLINK("http://commons.apache.org/logging/","http://commons.apache.org/logging/")</f>
         <v>http://commons.apache.org/logging/</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="18" t="str">
+      <c r="F16" s="26"/>
+      <c r="G16" s="17" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
@@ -1484,13 +1462,9 @@
       <c r="I16" s="2">
         <v>39412</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="2">
-        <v>39412</v>
-      </c>
-      <c r="L16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" ht="128.25" customHeight="1">
       <c r="A17" s="9"/>
@@ -1503,11 +1477,11 @@
       <c r="D17" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>72</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="18" t="str">
+      <c r="G17" s="17" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
@@ -1523,7 +1497,7 @@
       <c r="K17" s="2">
         <v>40366</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12" ht="63" customHeight="1">
       <c r="A18" s="13">
@@ -1539,11 +1513,11 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="15"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="105" customHeight="1">
       <c r="A19" s="1"/>
@@ -1556,11 +1530,11 @@
       <c r="D19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1575,7 +1549,9 @@
       <c r="K19" s="2">
         <v>40424</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="29" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="74.25" customHeight="1">
       <c r="A20" s="13">
@@ -1590,11 +1566,11 @@
       <c r="D20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="1">
@@ -1603,27 +1579,23 @@
       <c r="I20" s="2">
         <v>40153</v>
       </c>
-      <c r="J20" s="1">
-        <v>2.46</v>
-      </c>
-      <c r="K20" s="2">
-        <v>40153</v>
-      </c>
-      <c r="L20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -282,9 +282,6 @@
     <t>http://itextpdf.com/</t>
   </si>
   <si>
-    <t>http://itextpdf.com/terms-of-use/index.php?page=AGPL</t>
-  </si>
-  <si>
     <t>5.0.2</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>Will be upgraded for the next release cycle</t>
+  </si>
+  <si>
+    <t>http://itextpdf.com/terms-of-use/agpl.php</t>
   </si>
 </sst>
 </file>
@@ -551,23 +551,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -952,7 +952,7 @@
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -989,7 +989,7 @@
       <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="29"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="49.5" customHeight="1">
       <c r="A3" s="1">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="29"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" ht="41.25" customHeight="1">
       <c r="A4" s="1">
@@ -1064,24 +1064,24 @@
         <v>82</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="I4" s="20">
         <v>40282</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="29"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="85.5" customHeight="1">
       <c r="A5" s="1">
@@ -1117,8 +1117,8 @@
       <c r="K5" s="2">
         <v>40368</v>
       </c>
-      <c r="L5" s="29" t="s">
-        <v>104</v>
+      <c r="L5" s="28" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="47.25" customHeight="1">
@@ -1149,39 +1149,39 @@
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="29"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" s="23" customFormat="1" ht="123.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="H7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="29"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" ht="114.75" customHeight="1">
       <c r="A8" s="1">
@@ -1194,14 +1194,14 @@
         <v>77</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>78</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>79</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="29"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="59.25" customHeight="1">
       <c r="A9" s="13">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="30"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:12" ht="60.75" customHeight="1">
       <c r="A10" s="13">
@@ -1277,8 +1277,8 @@
       <c r="K10" s="14">
         <v>40344</v>
       </c>
-      <c r="L10" s="30" t="s">
-        <v>105</v>
+      <c r="L10" s="29" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="52.5" customHeight="1">
@@ -1315,13 +1315,13 @@
         <v>40371</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="147.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>11</v>
@@ -1349,12 +1349,12 @@
       <c r="K12" s="14">
         <v>40371</v>
       </c>
-      <c r="L12" s="29"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" ht="119.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
@@ -1377,12 +1377,12 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="29"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" ht="69" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>3</v>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="29"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12" ht="31.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>2</v>
@@ -1434,12 +1434,12 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="29"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12" ht="63" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>0</v>
@@ -1464,12 +1464,12 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="29"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" spans="1:12" ht="128.25" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>73</v>
@@ -1497,7 +1497,7 @@
       <c r="K17" s="2">
         <v>40366</v>
       </c>
-      <c r="L17" s="29"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" ht="63" customHeight="1">
       <c r="A18" s="13">
@@ -1513,16 +1513,16 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="105" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>27</v>
@@ -1549,8 +1549,8 @@
       <c r="K19" s="2">
         <v>40424</v>
       </c>
-      <c r="L19" s="29" t="s">
-        <v>105</v>
+      <c r="L19" s="28" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="74.25" customHeight="1">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="29"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="15"/>
@@ -1595,7 +1595,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="31"/>
+      <c r="L21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
   <si>
     <t>The Logging package is an ultra-thin bridge between different logging implementations. A library that uses the commons-logging API can be used with any logging implementation at runtime.</t>
   </si>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>3.3-1</t>
-  </si>
-  <si>
-    <t>DD-MM-YYYY</t>
   </si>
   <si>
     <t>10.1 fop.jar</t>
@@ -358,7 +355,7 @@
     <numFmt numFmtId="164" formatCode="d/mmm/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -469,25 +466,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -512,9 +503,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -530,15 +518,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -568,6 +550,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -935,61 +935,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="20" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="20" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="33" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="33" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -997,605 +997,603 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="29">
         <v>40305</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="49.5" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="14" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="29">
         <v>39541</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="41.25" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="30">
         <v>40282</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="28"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="85.5" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="29">
         <v>40268</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="29">
         <v>40368</v>
       </c>
-      <c r="L5" s="28" t="s">
-        <v>103</v>
+      <c r="L5" s="23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="47.25" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="29">
         <v>37485</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="1:12" s="23" customFormat="1" ht="123.75" customHeight="1">
+      <c r="J6" s="10"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" s="18" customFormat="1" ht="123.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="114.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="31">
         <v>39358</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="28"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="59.25" customHeight="1">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="17" t="str">
+      <c r="F9" s="8"/>
+      <c r="G9" s="14" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="29">
         <v>39408</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="29"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12" ht="60.75" customHeight="1">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="17" t="str">
+      <c r="F10" s="8"/>
+      <c r="G10" s="14" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="29">
         <v>39340</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="29">
         <v>40344</v>
       </c>
-      <c r="L10" s="29" t="s">
-        <v>104</v>
+      <c r="L10" s="24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="52.5" customHeight="1">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="17" t="str">
+      <c r="F11" s="8"/>
+      <c r="G11" s="14" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
       <c r="H11" s="1">
         <v>0.95</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="29">
         <v>39660</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="29">
         <v>40371</v>
       </c>
-      <c r="L11" s="26" t="s">
-        <v>104</v>
+      <c r="L11" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="147.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="17" t="str">
+      <c r="F12" s="8"/>
+      <c r="G12" s="14" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
       <c r="H12" s="1">
         <v>0.95</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="29">
         <v>39660</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="29">
         <v>40371</v>
       </c>
-      <c r="L12" s="28"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="119.25" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="29">
         <v>38123</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="69" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="17" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="14" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="1">
         <v>1.7</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="29">
         <v>39456</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="31.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="17" t="str">
+      <c r="F15" s="21"/>
+      <c r="G15" s="14" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
       <c r="H15" s="1">
         <v>1.4</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="29">
         <v>39467</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="63" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="17" t="str">
+      <c r="E16" s="14" t="str">
         <f>HYPERLINK("http://commons.apache.org/logging/","http://commons.apache.org/logging/")</f>
         <v>http://commons.apache.org/logging/</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="17" t="str">
+      <c r="F16" s="21"/>
+      <c r="G16" s="14" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="29">
         <v>39412</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="128.25" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="17" t="str">
+      <c r="F17" s="8"/>
+      <c r="G17" s="14" t="str">
         <f>HYPERLINK("http://www.apache.org/licenses/LICENSE-2.0.html","http://www.apache.org/licenses/LICENSE-2.0.html")</f>
         <v>http://www.apache.org/licenses/LICENSE-2.0.html</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="29">
         <v>39610</v>
       </c>
       <c r="J17" s="1">
         <v>1.4</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="29">
         <v>40366</v>
       </c>
-      <c r="L17" s="28"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="63" customHeight="1">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>11</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="26"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" ht="105" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="29">
         <v>40015</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="29">
         <v>40424</v>
       </c>
-      <c r="L19" s="28" t="s">
-        <v>104</v>
+      <c r="L19" s="23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="74.25" customHeight="1">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>12</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="17" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="1">
         <v>2.46</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="29">
         <v>40153</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="30"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="14115" windowHeight="8670"/>
   </bookViews>
   <sheets>
-    <sheet name="tci-includes" sheetId="1" r:id="rId1"/>
+    <sheet name="twe-includes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -37,9 +37,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>External Libraries</t>
-  </si>
-  <si>
     <t>http://xmlgraphics.apache.org/batik/index.html</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>1.75.2</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>http://www.apache.org/licenses/LICENSE-1.1</t>
   </si>
   <si>
-    <t>Use Version</t>
-  </si>
-  <si>
     <t>License</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
   </si>
   <si>
     <t>BSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSIS (CPL+  zlib/libpng  + bzip2) </t>
   </si>
   <si>
     <t>http://jedit-syntax.sourceforge.net/</t>
@@ -281,9 +269,6 @@
   </si>
   <si>
     <t>Will be upgraded for the next release cycle (depends on XERCES and XALAN)</t>
-  </si>
-  <si>
-    <t>MIT (Propriatery - MIT like)</t>
   </si>
   <si>
     <t>1.0</t>
@@ -677,6 +662,23 @@
   <si>
     <t>(comes with FOP project)
 Will be upgraded for the next release cycle if no problems with new FOP version</t>
+  </si>
+  <si>
+    <t>External Library</t>
+  </si>
+  <si>
+    <t>Propriatery
+(MIT like)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSIS
+(CPL+  zlib/libpng  + bzip2) </t>
+  </si>
+  <si>
+    <t>Used Version</t>
+  </si>
+  <si>
+    <t>NOTE: TSL licensed version of TWE comes without iText</t>
   </si>
 </sst>
 </file>
@@ -685,8 +687,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d/mmm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -797,108 +799,99 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1264,725 +1257,651 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="10" style="25" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="22" style="18" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12" style="22" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="10" style="28" customWidth="1"/>
+    <col min="11" max="11" width="59.85546875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
+    <row r="1" spans="1:11" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="47.25" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="23">
+        <v>40305</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="23">
+        <v>39541</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="24" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="8">
+        <v>40282</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45.75" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="23">
+        <v>40268</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="23">
+        <v>40368</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="23">
+        <v>37485</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="66.75" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="9">
+        <v>39358</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="23">
+        <v>39408</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="24" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="23">
+        <v>39340</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="23">
+        <v>40344</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="56.25" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="23">
+        <v>39043</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="23">
+        <v>40158</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="90" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="H12" s="23">
+        <v>39660</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="23">
+        <v>40371</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="80.25" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="23">
+        <v>38123</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45.75" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>6</v>
+      <c r="E14" s="3"/>
+      <c r="F14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="H14" s="23">
+        <v>39456</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="58.5" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="21">
-        <v>40305</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="17"/>
+    <row r="15" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="H15" s="23">
+        <v>39467</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="23">
+        <v>40469</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A3" s="1">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="21">
-        <v>39541</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A4" s="19">
-        <f>A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="22">
-        <v>40282</v>
-      </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" ht="66.75" customHeight="1">
-      <c r="A5" s="19">
-        <f>A4+1</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="21">
-        <v>40268</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="21">
-        <v>40368</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A6" s="19">
-        <f>A5+1</f>
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="21">
-        <v>37485</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" s="12" customFormat="1" ht="101.25" customHeight="1">
-      <c r="A7" s="19">
-        <f>A6+1</f>
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12" ht="102" customHeight="1">
-      <c r="A8" s="19">
-        <f>A7+1</f>
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="23">
-        <v>39358</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A9" s="19">
-        <f>A8+1</f>
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="21">
-        <v>39408</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:12" ht="39.75" customHeight="1">
-      <c r="A10" s="19">
-        <f>A9+1</f>
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="10" t="s">
+    <row r="16" spans="1:11" ht="45" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="21">
-        <v>39340</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="21">
-        <v>40344</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="84" customHeight="1">
-      <c r="A11" s="19">
-        <f>A10+1</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="21">
-        <v>39043</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="21">
-        <v>40158</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A12" s="19">
-        <f>A11+1</f>
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="I12" s="21">
-        <v>39660</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="21">
-        <v>40371</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="113.25" customHeight="1">
-      <c r="A13" s="19">
-        <f>A12+1</f>
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="21">
-        <v>38123</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="69" customHeight="1">
-      <c r="A14" s="19">
-        <f>A13+1</f>
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="I14" s="21">
-        <v>39456</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A15" s="19">
-        <f>A14+1</f>
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="I15" s="21">
-        <v>39467</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="21">
-        <v>40469</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="57" customHeight="1">
-      <c r="A16" s="19">
-        <f>A15+1</f>
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="10" t="str">
+      <c r="D16" s="19" t="str">
         <f>HYPERLINK("http://commons.apache.org/logging/","http://commons.apache.org/logging/")</f>
         <v>http://commons.apache.org/logging/</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="23">
+        <v>39412</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="78" customHeight="1">
+      <c r="A17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="23">
+        <v>39610</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="J17" s="23">
+        <v>40366</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="56.25" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="21">
-        <v>39412</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="17"/>
+      <c r="G18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="23">
+        <v>40015</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="23">
+        <v>40424</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" ht="128.25" customHeight="1">
-      <c r="A17" s="19">
-        <f>A16+1</f>
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="21">
-        <v>39610</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="K17" s="21">
-        <v>40366</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>110</v>
-      </c>
+    <row r="19" spans="1:11" ht="46.5" customHeight="1">
+      <c r="A19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="12">
+        <v>2.46</v>
+      </c>
+      <c r="H19" s="23">
+        <v>40153</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="107.25" customHeight="1">
-      <c r="A18" s="19">
-        <f>A17+1</f>
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="21">
-        <v>40015</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="21">
-        <v>40424</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="69.75" customHeight="1">
-      <c r="A19" s="19">
-        <f>A18+1</f>
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="6">
-        <v>2.46</v>
-      </c>
-      <c r="I19" s="21">
-        <v>40153</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="32"/>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E19" r:id="rId4"/>
-    <hyperlink ref="G19" r:id="rId5"/>
-    <hyperlink ref="G3" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="F5" r:id="rId8"/>
-    <hyperlink ref="G5" r:id="rId9"/>
-    <hyperlink ref="E6" r:id="rId10"/>
-    <hyperlink ref="G6" r:id="rId11"/>
-    <hyperlink ref="E9" r:id="rId12"/>
-    <hyperlink ref="E10" r:id="rId13"/>
-    <hyperlink ref="E13" r:id="rId14"/>
-    <hyperlink ref="E14" r:id="rId15"/>
-    <hyperlink ref="G14" r:id="rId16"/>
-    <hyperlink ref="E15" r:id="rId17"/>
-    <hyperlink ref="G13" r:id="rId18"/>
-    <hyperlink ref="E17" r:id="rId19"/>
-    <hyperlink ref="E12" r:id="rId20"/>
-    <hyperlink ref="E8" r:id="rId21"/>
-    <hyperlink ref="G8" r:id="rId22"/>
-    <hyperlink ref="E4" r:id="rId23"/>
-    <hyperlink ref="G4" r:id="rId24"/>
-    <hyperlink ref="F7" r:id="rId25"/>
-    <hyperlink ref="E7" r:id="rId26"/>
-    <hyperlink ref="G7" r:id="rId27"/>
-    <hyperlink ref="E18" r:id="rId28"/>
-    <hyperlink ref="G18" r:id="rId29"/>
-    <hyperlink ref="E11" r:id="rId30"/>
-    <hyperlink ref="G9" r:id="rId31"/>
-    <hyperlink ref="G10" r:id="rId32"/>
-    <hyperlink ref="G12" r:id="rId33"/>
-    <hyperlink ref="G15" r:id="rId34"/>
-    <hyperlink ref="G16" r:id="rId35"/>
-    <hyperlink ref="G17" r:id="rId36"/>
-    <hyperlink ref="G11" r:id="rId37"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D19" r:id="rId4"/>
+    <hyperlink ref="F19" r:id="rId5"/>
+    <hyperlink ref="F3" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="F5" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="F6" r:id="rId11"/>
+    <hyperlink ref="D9" r:id="rId12"/>
+    <hyperlink ref="D10" r:id="rId13"/>
+    <hyperlink ref="D13" r:id="rId14"/>
+    <hyperlink ref="D14" r:id="rId15"/>
+    <hyperlink ref="F14" r:id="rId16"/>
+    <hyperlink ref="D15" r:id="rId17"/>
+    <hyperlink ref="F13" r:id="rId18"/>
+    <hyperlink ref="D17" r:id="rId19"/>
+    <hyperlink ref="D12" r:id="rId20"/>
+    <hyperlink ref="D8" r:id="rId21"/>
+    <hyperlink ref="F8" r:id="rId22"/>
+    <hyperlink ref="D4" r:id="rId23"/>
+    <hyperlink ref="F4" r:id="rId24"/>
+    <hyperlink ref="E7" r:id="rId25"/>
+    <hyperlink ref="D7" r:id="rId26"/>
+    <hyperlink ref="F7" r:id="rId27"/>
+    <hyperlink ref="D18" r:id="rId28"/>
+    <hyperlink ref="F18" r:id="rId29"/>
+    <hyperlink ref="D11" r:id="rId30"/>
+    <hyperlink ref="F9" r:id="rId31"/>
+    <hyperlink ref="F10" r:id="rId32"/>
+    <hyperlink ref="F12" r:id="rId33"/>
+    <hyperlink ref="F15" r:id="rId34"/>
+    <hyperlink ref="F16" r:id="rId35"/>
+    <hyperlink ref="F17" r:id="rId36"/>
+    <hyperlink ref="F11" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>

--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
-  <si>
-    <t>The Logging package is an ultra-thin bridge between different logging implementations. A library that uses the commons-logging API can be used with any logging implementation at runtime.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
   <si>
     <t>Lastest Version</t>
   </si>
@@ -130,9 +127,6 @@
     <t>http://jedit-syntax.sourceforge.net/</t>
   </si>
   <si>
-    <t>2.2.2</t>
-  </si>
-  <si>
     <t>http://www.opensource.org/licenses/mit-license.php</t>
   </si>
   <si>
@@ -206,12 +200,6 @@
   </si>
   <si>
     <t>https://cds.sun.com/is-bin/INTERSHOP.enfinity/WFS/CDS-CDS_Developer-Site/en_US/-/USD/ViewLicense-Start?LicenseUUID=tjHACUFBVDMAAAEY26s5AXiO&amp;ProductUUID=c6XACUFBcxoAAAEYjNQ5AXuE</t>
-  </si>
-  <si>
-    <t>AGPL</t>
-  </si>
-  <si>
-    <t>Version 1.4.0.5 completely changed the concepts</t>
   </si>
   <si>
     <t>Will be upgraded for the next release cycle</t>
@@ -285,7 +273,346 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Apache Ant</t>
+      <t>iText</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. itext.jar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JGraph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. jgraph.jar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>jEdit-Syntax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. jEdit-syntax.jar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Java Help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. jh.jar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Xalan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. serializer.jar
+     2. xalan.jar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Xerces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. xercesImpl.jar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>XML Commons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. xml-apis.jar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. fop.jar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Avalon Framework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. avalon-framework.jar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Batik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. batik.jar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Commons IO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. commons-io.jar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Commons Logging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. commons-logging.jar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>XML Graphics Commons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. xmlgraphics-common.jar </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DocBook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+        1. docbook-xsl </t>
+    </r>
+  </si>
+  <si>
+    <t>1.4.0.5   (mxGraph/JgraphX)</t>
+  </si>
+  <si>
+    <t>(comes with FOP project)</t>
+  </si>
+  <si>
+    <t>(comes with FOP project)
+Will be upgraded for the next release cycle if no problems with new FOP version</t>
+  </si>
+  <si>
+    <t>External Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSIS
+(CPL+  zlib/libpng  + bzip2) </t>
+  </si>
+  <si>
+    <t>Used Version</t>
+  </si>
+  <si>
+    <t>Version 1.4.0.5 completely changed the concepts - we will NOT upgrade for some time</t>
+  </si>
+  <si>
+    <t>AGPL V3</t>
+  </si>
+  <si>
+    <t>Proprietary
+(MIT like)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ant</t>
     </r>
     <r>
       <rPr>
@@ -309,7 +636,29 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ANT Contrib</t>
+      <t>TWS (Together Workflow Server)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. sharkxpdlmodel.jar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ant Contrib</t>
     </r>
     <r>
       <rPr>
@@ -323,362 +672,24 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>iText</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. itext.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JGraph</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. jgraph.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>jEdit-Syntax</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. jEdit-syntax.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Together Workflow Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. sharkxpdlmodel.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Java Help</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. jh.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Xalan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. serializer.jar
-     2. xalan.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Xerces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. xercesImpl.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>XML Commons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. xml-apis.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FOP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. fop.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Avalon Framework</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. avalon-framework.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Batik</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. batik.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Commons IO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. commons-io.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Commons Logging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. commons-logging.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>XML Graphics Commons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. xmlgraphics-common.jar </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DocBook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-        1. docbook-xsl </t>
-    </r>
-  </si>
-  <si>
-    <t>1.4.0.5   (mxGraph/JgraphX)</t>
-  </si>
-  <si>
-    <t>(comes with FOP project)</t>
-  </si>
-  <si>
-    <t>(comes with FOP project)
-Will be upgraded for the next release cycle if no problems with new FOP version</t>
-  </si>
-  <si>
-    <t>External Library</t>
-  </si>
-  <si>
-    <t>Propriatery
-(MIT like)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSIS
-(CPL+  zlib/libpng  + bzip2) </t>
-  </si>
-  <si>
-    <t>Used Version</t>
-  </si>
-  <si>
-    <t>NOTE: TSL licensed version of TWE comes without iText</t>
+    <t>The Logging package is an ultra-thin bridge between different logging implementations. A library that uses the commons-logging API can be used with any logging implementation at runtime. Commons-logging comes with support for a number of popular logging implementations, and writing adapters for others is a reasonably simple task.</t>
+  </si>
+  <si>
+    <t>5.0.4</t>
+  </si>
+  <si>
+    <t>http://archive.apache.org/dist/xml/commons/</t>
+  </si>
+  <si>
+    <t>Will be upgraded for the next release cycle (if no conflicts with XALAN)</t>
+  </si>
+  <si>
+    <t>2.2.2+ (CVS version 20031123)</t>
+  </si>
+  <si>
+    <t>I am placing the jEdit 2.2.1 syntax highlighting package in the public
+domain. This means it can be integrated into commercial programs, etc.
+     NOTE: code downloaded from site didn't match binaries. The JAR file is a "home built" based on CVS sources</t>
   </si>
 </sst>
 </file>
@@ -799,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,9 +883,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -892,6 +900,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1259,72 +1273,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22" style="18" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="43.140625" style="18" customWidth="1"/>
     <col min="3" max="3" width="12" style="22" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" style="22" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="22" customWidth="1"/>
     <col min="6" max="6" width="37.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="28" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="27" customWidth="1"/>
-    <col min="10" max="10" width="10" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="26" customWidth="1"/>
+    <col min="10" max="10" width="10" style="27" customWidth="1"/>
     <col min="11" max="11" width="59.85546875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="30" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:11" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="19" t="s">
@@ -1334,7 +1346,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="23">
-        <v>40305</v>
+        <v>39541</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="23"/>
@@ -1342,26 +1354,26 @@
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="23">
-        <v>39541</v>
+        <v>40305</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="23"/>
@@ -1369,486 +1381,496 @@
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="8">
-        <v>40282</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="23">
+        <v>38123</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1.7</v>
       </c>
       <c r="H5" s="23">
-        <v>40268</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="23">
-        <v>40368</v>
-      </c>
+        <v>39456</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="5" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>38</v>
+        <v>76</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1.4</v>
       </c>
       <c r="H6" s="23">
-        <v>37485</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="5"/>
+        <v>39467</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="23">
+        <v>40469</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>59</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f>HYPERLINK("http://commons.apache.org/logging/","http://commons.apache.org/logging/")</f>
+        <v>http://commons.apache.org/logging/</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="19" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="H7" s="23">
+        <v>39412</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="66.75" customHeight="1">
+    <row r="8" spans="1:11" ht="60" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="9">
-        <v>39358</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="23">
+        <v>40015</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="23">
+        <v>40424</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="35.25" customHeight="1">
+    <row r="9" spans="1:11" ht="91.5" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="H9" s="23">
+        <v>39660</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="23">
-        <v>39408</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="23">
+        <v>40371</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="23">
-        <v>39340</v>
+        <v>63</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="8">
+        <v>40282</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="J10" s="23">
-        <v>40344</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>66</v>
+        <v>40412</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="56.25" customHeight="1">
+    <row r="11" spans="1:11" ht="69" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="23">
-        <v>39043</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="23">
-        <v>40158</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="9">
+        <v>39358</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="90" customHeight="1">
+    <row r="12" spans="1:11" ht="49.5" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0.95</v>
+        <v>37</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="H12" s="23">
-        <v>39660</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="23">
-        <v>40371</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>66</v>
+        <v>37948</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="80.25" customHeight="1">
+    <row r="13" spans="1:11" ht="46.5" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="19" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H13" s="23">
-        <v>38123</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="23"/>
+        <v>40268</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="23">
+        <v>40368</v>
+      </c>
       <c r="K13" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>98</v>
+      <c r="A14" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="19" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G14" s="12">
-        <v>1.7</v>
+        <v>2.46</v>
       </c>
       <c r="H14" s="23">
-        <v>39456</v>
+        <v>40153</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="29.25" customHeight="1">
+    <row r="15" spans="1:11" ht="68.25" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="F15" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="H15" s="23">
-        <v>39467</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="23">
-        <v>40469</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>105</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="45" customHeight="1">
+    <row r="16" spans="1:11" ht="36.75" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="19" t="str">
-        <f>HYPERLINK("http://commons.apache.org/logging/","http://commons.apache.org/logging/")</f>
-        <v>http://commons.apache.org/logging/</v>
+        <v>43</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H16" s="23">
-        <v>39412</v>
+        <v>39408</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="78" customHeight="1">
+    <row r="17" spans="1:11" ht="24.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H17" s="23">
-        <v>39610</v>
-      </c>
-      <c r="I17" s="12">
-        <v>1.4</v>
+        <v>39340</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="J17" s="23">
-        <v>40366</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>105</v>
+        <v>40344</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="56.25" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="F18" s="19" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H18" s="23">
-        <v>40015</v>
+        <v>39043</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="J18" s="23">
-        <v>40424</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>66</v>
+        <v>40158</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="46.5" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>26</v>
+    <row r="19" spans="1:11" ht="79.5" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="12">
-        <v>2.46</v>
+        <v>76</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="H19" s="23">
-        <v>40153</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="5"/>
+        <v>39610</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="J19" s="23">
+        <v>40366</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" s="17"/>
@@ -1857,54 +1879,58 @@
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="13"/>
     </row>
   </sheetData>
+  <sortState ref="A2:K20">
+    <sortCondition ref="A2:A20"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D19" r:id="rId4"/>
-    <hyperlink ref="F19" r:id="rId5"/>
-    <hyperlink ref="F3" r:id="rId6"/>
-    <hyperlink ref="D5" r:id="rId7"/>
-    <hyperlink ref="E5" r:id="rId8"/>
-    <hyperlink ref="F5" r:id="rId9"/>
-    <hyperlink ref="D6" r:id="rId10"/>
-    <hyperlink ref="F6" r:id="rId11"/>
-    <hyperlink ref="D9" r:id="rId12"/>
-    <hyperlink ref="D10" r:id="rId13"/>
-    <hyperlink ref="D13" r:id="rId14"/>
-    <hyperlink ref="D14" r:id="rId15"/>
-    <hyperlink ref="F14" r:id="rId16"/>
-    <hyperlink ref="D15" r:id="rId17"/>
-    <hyperlink ref="F13" r:id="rId18"/>
-    <hyperlink ref="D17" r:id="rId19"/>
-    <hyperlink ref="D12" r:id="rId20"/>
-    <hyperlink ref="D8" r:id="rId21"/>
-    <hyperlink ref="F8" r:id="rId22"/>
-    <hyperlink ref="D4" r:id="rId23"/>
-    <hyperlink ref="F4" r:id="rId24"/>
-    <hyperlink ref="E7" r:id="rId25"/>
-    <hyperlink ref="D7" r:id="rId26"/>
-    <hyperlink ref="F7" r:id="rId27"/>
-    <hyperlink ref="D18" r:id="rId28"/>
-    <hyperlink ref="F18" r:id="rId29"/>
-    <hyperlink ref="D11" r:id="rId30"/>
-    <hyperlink ref="F9" r:id="rId31"/>
-    <hyperlink ref="F10" r:id="rId32"/>
-    <hyperlink ref="F12" r:id="rId33"/>
-    <hyperlink ref="F15" r:id="rId34"/>
-    <hyperlink ref="F16" r:id="rId35"/>
-    <hyperlink ref="F17" r:id="rId36"/>
-    <hyperlink ref="F11" r:id="rId37"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D14" r:id="rId4"/>
+    <hyperlink ref="F14" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId6"/>
+    <hyperlink ref="D13" r:id="rId7"/>
+    <hyperlink ref="E13" r:id="rId8"/>
+    <hyperlink ref="F13" r:id="rId9"/>
+    <hyperlink ref="D12" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="D16" r:id="rId12"/>
+    <hyperlink ref="D17" r:id="rId13"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D5" r:id="rId15"/>
+    <hyperlink ref="F5" r:id="rId16"/>
+    <hyperlink ref="D6" r:id="rId17"/>
+    <hyperlink ref="F4" r:id="rId18"/>
+    <hyperlink ref="D19" r:id="rId19"/>
+    <hyperlink ref="D9" r:id="rId20"/>
+    <hyperlink ref="D11" r:id="rId21"/>
+    <hyperlink ref="F11" r:id="rId22"/>
+    <hyperlink ref="D10" r:id="rId23"/>
+    <hyperlink ref="F10" r:id="rId24"/>
+    <hyperlink ref="E15" r:id="rId25"/>
+    <hyperlink ref="D15" r:id="rId26"/>
+    <hyperlink ref="F15" r:id="rId27"/>
+    <hyperlink ref="D8" r:id="rId28"/>
+    <hyperlink ref="F8" r:id="rId29"/>
+    <hyperlink ref="D18" r:id="rId30"/>
+    <hyperlink ref="F16" r:id="rId31"/>
+    <hyperlink ref="F17" r:id="rId32"/>
+    <hyperlink ref="F9" r:id="rId33"/>
+    <hyperlink ref="F6" r:id="rId34"/>
+    <hyperlink ref="F7" r:id="rId35"/>
+    <hyperlink ref="F19" r:id="rId36"/>
+    <hyperlink ref="F18" r:id="rId37"/>
+    <hyperlink ref="E18" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>Lastest Version</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>http://www.docbook.org/tdg/en/html/aph.html</t>
-  </si>
-  <si>
     <t>DocBook is an XML vocabulary that lets you create documents in a presentation-neutral form that captures the logical structure of your content. Using free tools along with the DocBook XSL stylesheets, you can publish your content as HTML pages and PDF files, and in many other formats.</t>
   </si>
   <si>
@@ -163,16 +160,10 @@
     <t>http://docbook.sourceforge.net/</t>
   </si>
   <si>
-    <t>1.76.0</t>
-  </si>
-  <si>
     <t>https://javahelp.dev.java.net/</t>
   </si>
   <si>
     <t>2.0_05</t>
-  </si>
-  <si>
-    <t>FDL V1.1</t>
   </si>
   <si>
     <t>http://itextpdf.com/</t>
@@ -690,6 +681,9 @@
     <t>I am placing the jEdit 2.2.1 syntax highlighting package in the public
 domain. This means it can be integrated into commercial programs, etc.
      NOTE: code downloaded from site didn't match binaries. The JAR file is a "home built" based on CVS sources</t>
+  </si>
+  <si>
+    <t>1.76.1</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1292,13 +1288,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1310,7 +1306,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>15</v>
@@ -1327,23 +1323,23 @@
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="23">
         <v>39541</v>
@@ -1354,23 +1350,23 @@
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="23">
         <v>40305</v>
@@ -1381,23 +1377,23 @@
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="23">
         <v>38123</v>
@@ -1405,25 +1401,25 @@
       <c r="I4" s="12"/>
       <c r="J4" s="23"/>
       <c r="K4" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="12">
         <v>1.7</v>
@@ -1434,25 +1430,25 @@
       <c r="I5" s="12"/>
       <c r="J5" s="23"/>
       <c r="K5" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G6" s="12">
         <v>1.4</v>
@@ -1461,24 +1457,24 @@
         <v>39467</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J6" s="23">
         <v>40469</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="19" t="str">
         <f>HYPERLINK("http://commons.apache.org/logging/","http://commons.apache.org/logging/")</f>
@@ -1486,7 +1482,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>17</v>
@@ -1497,26 +1493,24 @@
       <c r="I7" s="12"/>
       <c r="J7" s="23"/>
       <c r="K7" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="F8" s="19"/>
       <c r="G8" s="31" t="s">
         <v>10</v>
       </c>
@@ -1524,31 +1518,31 @@
         <v>40015</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="J8" s="23">
-        <v>40424</v>
+        <v>40483</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="91.5" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G9" s="12">
         <v>0.95</v>
@@ -1557,67 +1551,67 @@
         <v>39660</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J9" s="23">
         <v>40371</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H10" s="8">
         <v>40282</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J10" s="23">
         <v>40412</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="69" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="9">
         <v>39358</v>
@@ -1628,23 +1622,23 @@
     </row>
     <row r="12" spans="1:11" ht="49.5" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H12" s="23">
         <v>37948</v>
@@ -1652,56 +1646,56 @@
       <c r="I12" s="12"/>
       <c r="J12" s="23"/>
       <c r="K12" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="46.5" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="G13" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="H13" s="23">
         <v>40268</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J13" s="23">
         <v>40368</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.75" customHeight="1">
       <c r="A14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="19" t="s">
@@ -1719,25 +1713,25 @@
     </row>
     <row r="15" spans="1:11" ht="68.25" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="G15" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="12"/>
@@ -1746,23 +1740,23 @@
     </row>
     <row r="16" spans="1:11" ht="36.75" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="23">
         <v>39408</v>
@@ -1773,88 +1767,88 @@
     </row>
     <row r="17" spans="1:11" ht="24.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="23">
         <v>39340</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" s="23">
         <v>40344</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="56.25" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="H18" s="23">
         <v>39043</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J18" s="23">
         <v>40158</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="79.5" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>11</v>
@@ -1869,7 +1863,7 @@
         <v>40366</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -1918,19 +1912,18 @@
     <hyperlink ref="D15" r:id="rId26"/>
     <hyperlink ref="F15" r:id="rId27"/>
     <hyperlink ref="D8" r:id="rId28"/>
-    <hyperlink ref="F8" r:id="rId29"/>
-    <hyperlink ref="D18" r:id="rId30"/>
-    <hyperlink ref="F16" r:id="rId31"/>
-    <hyperlink ref="F17" r:id="rId32"/>
-    <hyperlink ref="F9" r:id="rId33"/>
-    <hyperlink ref="F6" r:id="rId34"/>
-    <hyperlink ref="F7" r:id="rId35"/>
-    <hyperlink ref="F19" r:id="rId36"/>
-    <hyperlink ref="F18" r:id="rId37"/>
-    <hyperlink ref="E18" r:id="rId38"/>
+    <hyperlink ref="D18" r:id="rId29"/>
+    <hyperlink ref="F16" r:id="rId30"/>
+    <hyperlink ref="F17" r:id="rId31"/>
+    <hyperlink ref="F9" r:id="rId32"/>
+    <hyperlink ref="F6" r:id="rId33"/>
+    <hyperlink ref="F7" r:id="rId34"/>
+    <hyperlink ref="F19" r:id="rId35"/>
+    <hyperlink ref="F18" r:id="rId36"/>
+    <hyperlink ref="E18" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
   <si>
     <t>Lastest Version</t>
   </si>
@@ -684,6 +684,17 @@
   </si>
   <si>
     <t>1.76.1</t>
+  </si>
+  <si>
+    <t>(comes with FOP project - but we upgraded to newest version different than the one coming with FOP)</t>
+  </si>
+  <si>
+    <t>(comes with FOP project - but we upgraded to newer version, different than the one coming with FOP)
+Will be upgraded for the next release cycle if no problems with new FOP version</t>
+  </si>
+  <si>
+    <t>Proprietary
+(FDL v1.3/MIT-Docbook)</t>
   </si>
 </sst>
 </file>
@@ -1267,9 +1278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1383,7 +1392,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>8</v>
@@ -1433,7 +1442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1">
+    <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>89</v>
       </c>
@@ -1463,7 +1472,7 @@
         <v>40469</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
@@ -1493,7 +1502,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="23"/>
       <c r="K7" s="5" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1">
@@ -1504,7 +1513,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>47</v>

--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -578,10 +578,6 @@
     <t>External Library</t>
   </si>
   <si>
-    <t xml:space="preserve">NSIS
-(CPL+  zlib/libpng  + bzip2) </t>
-  </si>
-  <si>
     <t>Used Version</t>
   </si>
   <si>
@@ -695,6 +691,10 @@
   <si>
     <t>Proprietary
 (FDL v1.3/MIT-Docbook)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSIS
+(CPL1.0 +  zlib/libpng  + bzip2) </t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1315,7 +1317,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>15</v>
@@ -1332,7 +1334,7 @@
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>62</v>
@@ -1359,7 +1361,7 @@
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>61</v>
@@ -1472,7 +1474,7 @@
         <v>40469</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
@@ -1480,7 +1482,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -1502,7 +1504,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="23"/>
       <c r="K7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1">
@@ -1513,7 +1515,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>47</v>
@@ -1527,7 +1529,7 @@
         <v>40015</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J8" s="23">
         <v>40483</v>
@@ -1577,7 +1579,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>50</v>
@@ -1593,7 +1595,7 @@
         <v>40282</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J10" s="23">
         <v>40412</v>
@@ -1637,7 +1639,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>35</v>
@@ -1647,7 +1649,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H12" s="23">
         <v>37948</v>
@@ -1655,7 +1657,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="23"/>
       <c r="K12" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="46.5" customHeight="1">
@@ -1690,7 +1692,7 @@
         <v>40368</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.75" customHeight="1">
@@ -1701,7 +1703,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>29</v>
@@ -1722,7 +1724,7 @@
     </row>
     <row r="15" spans="1:11" ht="68.25" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>66</v>
@@ -1804,7 +1806,7 @@
         <v>40344</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="56.25" customHeight="1">
@@ -1821,7 +1823,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>73</v>

--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
   <si>
     <t>Lastest Version</t>
   </si>
@@ -175,16 +175,7 @@
     <t>GPL V3</t>
   </si>
   <si>
-    <t>http://www.together.at/prod/workflow/tws</t>
-  </si>
-  <si>
-    <t>http://sourceforge.net/projects/sharkwf/files/</t>
-  </si>
-  <si>
     <t>http://www.gnu.org/licenses/gpl.html</t>
-  </si>
-  <si>
-    <t>3.3-1</t>
   </si>
   <si>
     <t>SUN</t>
@@ -214,10 +205,6 @@
   </si>
   <si>
     <t>The jEdit Syntax Package is a stand-alone syntax highlighting text editor JavaBean.</t>
-  </si>
-  <si>
-    <t>Together XPDL Workflow Server is an enormously flexible and extensible WfMC XPDL and OMG Workflow Management Facility compliant embeddable and / or standalone Java Workflow Engine.
-This JAR contains classes for representing Java model of XPDL schema and handling XPDLs.</t>
   </si>
   <si>
     <t>The JavaHelp system is an online help system that developers can use to add online help to their Java platform applications. The JavaHelp system is both a JCP specification (JSR 97) and a reference implementation of that specification. The JavaHelp system open source project includes the source to the reference implementation.</t>
@@ -576,6 +563,10 @@
   </si>
   <si>
     <t>External Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSIS
+(CPL+  zlib/libpng  + bzip2) </t>
   </si>
   <si>
     <t>Used Version</t>
@@ -623,28 +614,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>TWS (Together Workflow Server)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. sharkxpdlmodel.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Ant Contrib</t>
     </r>
     <r>
@@ -682,19 +651,36 @@
     <t>1.76.1</t>
   </si>
   <si>
-    <t>(comes with FOP project - but we upgraded to newest version different than the one coming with FOP)</t>
-  </si>
-  <si>
-    <t>(comes with FOP project - but we upgraded to newer version, different than the one coming with FOP)
-Will be upgraded for the next release cycle if no problems with new FOP version</t>
-  </si>
-  <si>
-    <t>Proprietary
-(FDL v1.3/MIT-Docbook)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSIS
-(CPL1.0 +  zlib/libpng  + bzip2) </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TXM (Together XPDL Model)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. jxpdl.jar</t>
+    </r>
+  </si>
+  <si>
+    <t>Together XPDL Model (TXM) is a library that provides capatibility to handle XPDL(2) model based on XPDL schema. Using TXM, it is possible to read any file that conforms to XPDL specification, or to produce the new one.
+TXM has validation mechanism, both schema-based validation, and logical validation based on XPDL specification.</t>
+  </si>
+  <si>
+    <t>1.0-1</t>
+  </si>
+  <si>
+    <t>http://sourceforge.net/projects/jxpdl</t>
   </si>
 </sst>
 </file>
@@ -1278,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1299,7 +1285,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
@@ -1317,7 +1303,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>15</v>
@@ -1334,10 +1320,10 @@
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>44</v>
@@ -1361,16 +1347,16 @@
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="19" t="s">
@@ -1388,7 +1374,7 @@
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>4</v>
@@ -1412,12 +1398,12 @@
       <c r="I4" s="12"/>
       <c r="J4" s="23"/>
       <c r="K4" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>2</v>
@@ -1441,12 +1427,12 @@
       <c r="I5" s="12"/>
       <c r="J5" s="23"/>
       <c r="K5" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36" customHeight="1">
+    <row r="6" spans="1:11" ht="24" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>1</v>
@@ -1459,7 +1445,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G6" s="12">
         <v>1.4</v>
@@ -1468,21 +1454,21 @@
         <v>39467</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J6" s="23">
         <v>40469</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -1493,7 +1479,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>17</v>
@@ -1504,18 +1490,18 @@
       <c r="I7" s="12"/>
       <c r="J7" s="23"/>
       <c r="K7" s="5" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>47</v>
@@ -1529,18 +1515,18 @@
         <v>40015</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J8" s="23">
         <v>40483</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="91.5" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7</v>
@@ -1553,7 +1539,7 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G9" s="12">
         <v>0.95</v>
@@ -1562,31 +1548,31 @@
         <v>39660</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J9" s="23">
         <v>40371</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>51</v>
@@ -1595,31 +1581,31 @@
         <v>40282</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J10" s="23">
         <v>40412</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="69" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>49</v>
@@ -1633,13 +1619,13 @@
     </row>
     <row r="12" spans="1:11" ht="49.5" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>35</v>
@@ -1649,7 +1635,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H12" s="23">
         <v>37948</v>
@@ -1657,15 +1643,15 @@
       <c r="I12" s="12"/>
       <c r="J12" s="23"/>
       <c r="K12" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="46.5" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>34</v>
@@ -1686,13 +1672,13 @@
         <v>40268</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J13" s="23">
         <v>40368</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.75" customHeight="1">
@@ -1703,7 +1689,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>29</v>
@@ -1722,27 +1708,25 @@
       <c r="J14" s="23"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="68.25" customHeight="1">
+    <row r="15" spans="1:11" ht="81.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>55</v>
-      </c>
       <c r="G15" s="12" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="12"/>
@@ -1751,10 +1735,10 @@
     </row>
     <row r="16" spans="1:11" ht="36.75" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>42</v>
@@ -1764,7 +1748,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>40</v>
@@ -1778,10 +1762,10 @@
     </row>
     <row r="17" spans="1:11" ht="24.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>42</v>
@@ -1791,7 +1775,7 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>39</v>
@@ -1806,47 +1790,47 @@
         <v>40344</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="56.25" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H18" s="23">
         <v>39043</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J18" s="23">
         <v>40158</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="79.5" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>46</v>
@@ -1859,7 +1843,7 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>11</v>
@@ -1874,7 +1858,7 @@
         <v>40366</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -1919,22 +1903,21 @@
     <hyperlink ref="F11" r:id="rId22"/>
     <hyperlink ref="D10" r:id="rId23"/>
     <hyperlink ref="F10" r:id="rId24"/>
-    <hyperlink ref="E15" r:id="rId25"/>
-    <hyperlink ref="D15" r:id="rId26"/>
-    <hyperlink ref="F15" r:id="rId27"/>
-    <hyperlink ref="D8" r:id="rId28"/>
-    <hyperlink ref="D18" r:id="rId29"/>
-    <hyperlink ref="F16" r:id="rId30"/>
-    <hyperlink ref="F17" r:id="rId31"/>
-    <hyperlink ref="F9" r:id="rId32"/>
-    <hyperlink ref="F6" r:id="rId33"/>
-    <hyperlink ref="F7" r:id="rId34"/>
-    <hyperlink ref="F19" r:id="rId35"/>
-    <hyperlink ref="F18" r:id="rId36"/>
-    <hyperlink ref="E18" r:id="rId37"/>
+    <hyperlink ref="F15" r:id="rId25"/>
+    <hyperlink ref="D8" r:id="rId26"/>
+    <hyperlink ref="D18" r:id="rId27"/>
+    <hyperlink ref="F16" r:id="rId28"/>
+    <hyperlink ref="F17" r:id="rId29"/>
+    <hyperlink ref="F9" r:id="rId30"/>
+    <hyperlink ref="F6" r:id="rId31"/>
+    <hyperlink ref="F7" r:id="rId32"/>
+    <hyperlink ref="F19" r:id="rId33"/>
+    <hyperlink ref="F18" r:id="rId34"/>
+    <hyperlink ref="E18" r:id="rId35"/>
+    <hyperlink ref="D15" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t>Lastest Version</t>
   </si>
@@ -49,9 +49,6 @@
     <t>1.75.2</t>
   </si>
   <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
     <t>License URL</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t xml:space="preserve">NSIS (Nullsoft Scriptable Install System) is a professional open source system to create Windows installers. It is designed to be as small and flexible as possible and is therefore very suitable for internet distribution. </t>
   </si>
   <si>
-    <t>1.8.1</t>
-  </si>
-  <si>
     <t>1.0b3</t>
   </si>
   <si>
@@ -133,15 +127,9 @@
     <t>http://xerces.apache.org/</t>
   </si>
   <si>
-    <t>2.9-1</t>
-  </si>
-  <si>
     <t>2.7-1</t>
   </si>
   <si>
-    <t>2.10.0</t>
-  </si>
-  <si>
     <t>Apache V2.0</t>
   </si>
   <si>
@@ -167,9 +155,6 @@
   </si>
   <si>
     <t>http://itextpdf.com/</t>
-  </si>
-  <si>
-    <t>5.0.2</t>
   </si>
   <si>
     <t>GPL V3</t>
@@ -228,19 +213,10 @@
     <t>http://www.apache.org/licenses/LICENSE-2.0.html</t>
   </si>
   <si>
-    <t>1.3.04</t>
-  </si>
-  <si>
     <t>1.4.01</t>
   </si>
   <si>
-    <t>Will be upgraded for the next release cycle (depends on XERCES and XALAN)</t>
-  </si>
-  <si>
     <t>1.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
   </si>
   <si>
     <r>
@@ -558,10 +534,6 @@
     <t>(comes with FOP project)</t>
   </si>
   <si>
-    <t>(comes with FOP project)
-Will be upgraded for the next release cycle if no problems with new FOP version</t>
-  </si>
-  <si>
     <t>External Library</t>
   </si>
   <si>
@@ -590,30 +562,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Ant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-     1. ant.jar
-     2. ant-launcher.jar
-     3. ant-nodeps.jar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Ant Contrib</t>
     </r>
     <r>
@@ -631,13 +579,7 @@
     <t>The Logging package is an ultra-thin bridge between different logging implementations. A library that uses the commons-logging API can be used with any logging implementation at runtime. Commons-logging comes with support for a number of popular logging implementations, and writing adapters for others is a reasonably simple task.</t>
   </si>
   <si>
-    <t>5.0.4</t>
-  </si>
-  <si>
     <t>http://archive.apache.org/dist/xml/commons/</t>
-  </si>
-  <si>
-    <t>Will be upgraded for the next release cycle (if no conflicts with XALAN)</t>
   </si>
   <si>
     <t>2.2.2+ (CVS version 20031123)</t>
@@ -677,10 +619,45 @@
 TXM has validation mechanism, both schema-based validation, and logical validation based on XPDL specification.</t>
   </si>
   <si>
-    <t>1.0-1</t>
-  </si>
-  <si>
     <t>http://sourceforge.net/projects/jxpdl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. ant.jar
+     2. ant-launcher.jar</t>
+    </r>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
+  </si>
+  <si>
+    <t>2.11.0</t>
+  </si>
+  <si>
+    <t>5.0.6</t>
+  </si>
+  <si>
+    <t>1.1-1</t>
   </si>
 </sst>
 </file>
@@ -1264,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1285,34 +1262,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="28" t="s">
         <v>5</v>
@@ -1320,23 +1297,23 @@
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="23">
         <v>39541</v>
@@ -1345,28 +1322,28 @@
       <c r="J2" s="23"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="24.75" customHeight="1">
+    <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="H3" s="23">
-        <v>40305</v>
+        <v>40539</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="23"/>
@@ -1374,23 +1351,23 @@
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="23">
         <v>38123</v>
@@ -1398,25 +1375,25 @@
       <c r="I4" s="12"/>
       <c r="J4" s="23"/>
       <c r="K4" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>1.7</v>
@@ -1427,51 +1404,47 @@
       <c r="I5" s="12"/>
       <c r="J5" s="23"/>
       <c r="K5" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1.4</v>
+        <v>64</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="H6" s="23">
-        <v>39467</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="23">
-        <v>40469</v>
-      </c>
+        <v>40535</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D7" s="19" t="str">
         <f>HYPERLINK("http://commons.apache.org/logging/","http://commons.apache.org/logging/")</f>
@@ -1479,10 +1452,10 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="23">
         <v>39412</v>
@@ -1490,21 +1463,21 @@
       <c r="I7" s="12"/>
       <c r="J7" s="23"/>
       <c r="K7" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1">
       <c r="A8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="D8" s="19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="19"/>
@@ -1515,100 +1488,88 @@
         <v>40015</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J8" s="23">
         <v>40483</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="91.5" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.95</v>
+        <v>64</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="H9" s="23">
-        <v>39660</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="23">
         <v>40371</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="H10" s="8">
-        <v>40282</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="23">
-        <v>40412</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>40578</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="69" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H11" s="9">
         <v>39358</v>
@@ -1619,23 +1580,23 @@
     </row>
     <row r="12" spans="1:11" ht="49.5" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H12" s="23">
         <v>37948</v>
@@ -1643,60 +1604,60 @@
       <c r="I12" s="12"/>
       <c r="J12" s="23"/>
       <c r="K12" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="46.5" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="G13" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="H13" s="23">
         <v>40268</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J13" s="23">
         <v>40368</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.75" customHeight="1">
       <c r="A14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="12">
         <v>2.46</v>
@@ -1710,23 +1671,23 @@
     </row>
     <row r="15" spans="1:11" ht="81.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="12"/>
@@ -1735,23 +1696,23 @@
     </row>
     <row r="16" spans="1:11" ht="36.75" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H16" s="23">
         <v>39408</v>
@@ -1762,103 +1723,87 @@
     </row>
     <row r="17" spans="1:11" ht="24.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="H17" s="23">
-        <v>39340</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="23">
-        <v>40344</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>103</v>
-      </c>
+        <v>40512</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="56.25" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H18" s="23">
-        <v>39043</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="23">
         <v>40158</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="79.5" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>11</v>
+        <v>64</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1.4</v>
       </c>
       <c r="H19" s="23">
-        <v>39610</v>
-      </c>
-      <c r="I19" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="J19" s="23">
         <v>40366</v>
       </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">

--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
   <si>
     <t>Lastest Version</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Home Page</t>
   </si>
   <si>
-    <t>1.75.2</t>
-  </si>
-  <si>
     <t>License URL</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
   </si>
   <si>
     <t>https://cds.sun.com/is-bin/INTERSHOP.enfinity/WFS/CDS-CDS_Developer-Site/en_US/-/USD/ViewLicense-Start?LicenseUUID=tjHACUFBVDMAAAEY26s5AXiO&amp;ProductUUID=c6XACUFBcxoAAAEYjNQ5AXuE</t>
-  </si>
-  <si>
-    <t>Will be upgraded for the next release cycle</t>
   </si>
   <si>
     <t>http://itextpdf.com/terms-of-use/agpl.php</t>
@@ -1262,34 +1256,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" s="28" t="s">
         <v>5</v>
@@ -1297,23 +1291,23 @@
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="23">
         <v>39541</v>
@@ -1324,23 +1318,23 @@
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H3" s="23">
         <v>40539</v>
@@ -1351,23 +1345,23 @@
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="23">
         <v>38123</v>
@@ -1375,25 +1369,25 @@
       <c r="I4" s="12"/>
       <c r="J4" s="23"/>
       <c r="K4" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="12">
         <v>1.7</v>
@@ -1404,28 +1398,28 @@
       <c r="I5" s="12"/>
       <c r="J5" s="23"/>
       <c r="K5" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H6" s="23">
         <v>40535</v>
@@ -1433,18 +1427,18 @@
       <c r="I6" s="12"/>
       <c r="J6" s="23"/>
       <c r="K6" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="19" t="str">
         <f>HYPERLINK("http://commons.apache.org/logging/","http://commons.apache.org/logging/")</f>
@@ -1452,10 +1446,10 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="23">
         <v>39412</v>
@@ -1463,59 +1457,53 @@
       <c r="I7" s="12"/>
       <c r="J7" s="23"/>
       <c r="K7" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="19"/>
       <c r="G8" s="31" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="H8" s="23">
-        <v>40015</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="23">
         <v>40483</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="91.5" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="H9" s="23">
         <v>40371</v>
@@ -1526,23 +1514,23 @@
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H10" s="8">
         <v>40578</v>
@@ -1553,23 +1541,23 @@
     </row>
     <row r="11" spans="1:11" ht="69" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="9">
         <v>39358</v>
@@ -1580,23 +1568,23 @@
     </row>
     <row r="12" spans="1:11" ht="49.5" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H12" s="23">
         <v>37948</v>
@@ -1604,60 +1592,60 @@
       <c r="I12" s="12"/>
       <c r="J12" s="23"/>
       <c r="K12" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="46.5" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="G13" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="H13" s="23">
         <v>40268</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J13" s="23">
         <v>40368</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.75" customHeight="1">
       <c r="A14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="12">
         <v>2.46</v>
@@ -1671,23 +1659,23 @@
     </row>
     <row r="15" spans="1:11" ht="81.75" customHeight="1">
       <c r="A15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="12"/>
@@ -1696,23 +1684,23 @@
     </row>
     <row r="16" spans="1:11" ht="36.75" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="23">
         <v>39408</v>
@@ -1723,23 +1711,23 @@
     </row>
     <row r="17" spans="1:11" ht="24.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H17" s="23">
         <v>40512</v>
@@ -1750,25 +1738,25 @@
     </row>
     <row r="18" spans="1:11" ht="56.25" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="G18" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="H18" s="23">
         <v>40158</v>
@@ -1779,20 +1767,20 @@
     </row>
     <row r="19" spans="1:11" ht="79.5" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19" s="12">
         <v>1.4</v>
@@ -1803,7 +1791,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="23"/>
       <c r="K19" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">

--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
   <si>
     <t>Lastest Version</t>
   </si>
@@ -652,6 +652,41 @@
   </si>
   <si>
     <t>1.1-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TRR (Together Read Registry)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+     1. readregistry.exe</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Together Read Registry(TRR) is NSIS script application used for getting default value of JAVA HOME location from registry.
+</t>
+  </si>
+  <si>
+    <t>http://together.at</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/leaf?id=0B9ZAe6ftekYJNTc0OWM2NzctNzM3MS00YmNjLTkyMTctZjg0ZWUxZWI2YWQw&amp;;hl=en</t>
+  </si>
+  <si>
+    <t>1.0-1</t>
   </si>
 </sst>
 </file>
@@ -1233,11 +1268,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1657,155 +1690,182 @@
       <c r="J14" s="23"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="81.75" customHeight="1">
+    <row r="15" spans="1:11" ht="45" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="19"/>
+        <v>104</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="F15" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="12"/>
       <c r="J15" s="23"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="36.75" customHeight="1">
+    <row r="16" spans="1:11" ht="81.75" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="19" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="23">
-        <v>39408</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H16" s="23"/>
       <c r="I16" s="12"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" ht="24.75" customHeight="1">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="36.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="19" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="H17" s="23">
-        <v>40512</v>
+        <v>39408</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="23"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="56.25" customHeight="1">
+    <row r="18" spans="1:11" ht="24.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>89</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="19" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="H18" s="23">
-        <v>40158</v>
+        <v>40512</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="23"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="79.5" customHeight="1">
+    <row r="19" spans="1:11" ht="56.25" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="F19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="12">
-        <v>1.4</v>
+      <c r="G19" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="H19" s="23">
-        <v>40366</v>
+        <v>40158</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="23"/>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="79.5" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="H20" s="23">
+        <v>40366</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="13"/>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="13"/>
     </row>
   </sheetData>
   <sortState ref="A2:K20">
@@ -1823,34 +1883,37 @@
     <hyperlink ref="F13" r:id="rId9"/>
     <hyperlink ref="D12" r:id="rId10"/>
     <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="D16" r:id="rId12"/>
-    <hyperlink ref="D17" r:id="rId13"/>
+    <hyperlink ref="D17" r:id="rId12"/>
+    <hyperlink ref="D18" r:id="rId13"/>
     <hyperlink ref="D4" r:id="rId14"/>
     <hyperlink ref="D5" r:id="rId15"/>
     <hyperlink ref="F5" r:id="rId16"/>
     <hyperlink ref="D6" r:id="rId17"/>
     <hyperlink ref="F4" r:id="rId18"/>
-    <hyperlink ref="D19" r:id="rId19"/>
+    <hyperlink ref="D20" r:id="rId19"/>
     <hyperlink ref="D9" r:id="rId20"/>
     <hyperlink ref="D11" r:id="rId21"/>
     <hyperlink ref="F11" r:id="rId22"/>
     <hyperlink ref="D10" r:id="rId23"/>
     <hyperlink ref="F10" r:id="rId24"/>
-    <hyperlink ref="F15" r:id="rId25"/>
+    <hyperlink ref="F16" r:id="rId25"/>
     <hyperlink ref="D8" r:id="rId26"/>
-    <hyperlink ref="D18" r:id="rId27"/>
-    <hyperlink ref="F16" r:id="rId28"/>
-    <hyperlink ref="F17" r:id="rId29"/>
+    <hyperlink ref="D19" r:id="rId27"/>
+    <hyperlink ref="F17" r:id="rId28"/>
+    <hyperlink ref="F18" r:id="rId29"/>
     <hyperlink ref="F9" r:id="rId30"/>
     <hyperlink ref="F6" r:id="rId31"/>
     <hyperlink ref="F7" r:id="rId32"/>
-    <hyperlink ref="F19" r:id="rId33"/>
-    <hyperlink ref="F18" r:id="rId34"/>
-    <hyperlink ref="E18" r:id="rId35"/>
-    <hyperlink ref="D15" r:id="rId36"/>
+    <hyperlink ref="F20" r:id="rId33"/>
+    <hyperlink ref="F19" r:id="rId34"/>
+    <hyperlink ref="E19" r:id="rId35"/>
+    <hyperlink ref="D16" r:id="rId36"/>
+    <hyperlink ref="F15" r:id="rId37"/>
+    <hyperlink ref="D15" r:id="rId38"/>
+    <hyperlink ref="E15" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -500,28 +500,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DocBook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-        1. docbook-xsl </t>
-    </r>
-  </si>
-  <si>
     <t>1.4.0.5   (mxGraph/JgraphX)</t>
   </si>
   <si>
@@ -687,6 +665,29 @@
   </si>
   <si>
     <t>1.0-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DocBook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+        1. docbook-xsl
+        2. docbook-dtd  </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1270,7 +1271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1289,7 +1292,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -1307,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>13</v>
@@ -1324,7 +1327,7 @@
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>52</v>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>51</v>
@@ -1367,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="23">
         <v>40539</v>
@@ -1402,7 +1405,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="23"/>
       <c r="K4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1">
@@ -1431,7 +1434,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="23"/>
       <c r="K5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1">
@@ -1452,7 +1455,7 @@
         <v>62</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="23">
         <v>40535</v>
@@ -1460,7 +1463,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="23"/>
       <c r="K6" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
@@ -1468,7 +1471,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>37</v>
@@ -1490,18 +1493,18 @@
       <c r="I7" s="12"/>
       <c r="J7" s="23"/>
       <c r="K7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>42</v>
@@ -1509,7 +1512,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="19"/>
       <c r="G8" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="23">
         <v>40483</v>
@@ -1553,7 +1556,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>45</v>
@@ -1563,7 +1566,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="8">
         <v>40578</v>
@@ -1607,7 +1610,7 @@
         <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>32</v>
@@ -1617,7 +1620,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" s="23">
         <v>37948</v>
@@ -1625,7 +1628,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="23"/>
       <c r="K12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="46.5" customHeight="1">
@@ -1654,13 +1657,13 @@
         <v>40268</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13" s="23">
         <v>40368</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.75" customHeight="1">
@@ -1671,7 +1674,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>26</v>
@@ -1692,25 +1695,25 @@
     </row>
     <row r="15" spans="1:11" ht="45" customHeight="1">
       <c r="A15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="12"/>
@@ -1719,23 +1722,23 @@
     </row>
     <row r="16" spans="1:11" ht="81.75" customHeight="1">
       <c r="A16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="12"/>
@@ -1787,7 +1790,7 @@
         <v>62</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H18" s="23">
         <v>40512</v>
@@ -1810,7 +1813,7 @@
         <v>61</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>62</v>
@@ -1851,7 +1854,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="23"/>
       <c r="K20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">

--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
   <si>
     <t>Lastest Version</t>
   </si>
@@ -667,6 +667,25 @@
     <t>1.0-1</t>
   </si>
   <si>
+    <t xml:space="preserve">        2. docbook-dtd
+</t>
+  </si>
+  <si>
+    <t>DocBook is a schema (available in several languages including RELAX NG, W3C XML Schemas, and XML DTDs) maintained by the DocBook Technical Committee of OASIS. It is particularly well suited to books and papers about computer hardware and software (though it is by no means limited to these applications).</t>
+  </si>
+  <si>
+    <t>http://www.docbook.org/</t>
+  </si>
+  <si>
+    <t>http://www.docbook.org/schemas/4x</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Will be upgraded for the next release cycle</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -685,8 +704,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-        1. docbook-xsl
-        2. docbook-dtd  </t>
+        1. docbook-xsl</t>
     </r>
   </si>
 </sst>
@@ -694,12 +712,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="d/mmm/yy;@"/>
     <numFmt numFmtId="165" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -733,6 +752,11 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -808,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,6 +929,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1269,7 +1303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -1498,7 +1532,7 @@
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>17</v>
@@ -1521,354 +1555,385 @@
       <c r="J8" s="23"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="91.5" customHeight="1">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:11" s="35" customFormat="1" ht="67.5">
+      <c r="A9" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="H9" s="33">
+        <v>38993</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="33">
+        <v>39484</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="91.5" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>11</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="23">
-        <v>40371</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="24" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="8">
-        <v>40578</v>
+        <v>62</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="23">
+        <v>40371</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="23"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="69" customHeight="1">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="24" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="9">
-        <v>39358</v>
-      </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="8">
+        <v>40578</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="49.5" customHeight="1">
+    <row r="12" spans="1:11" ht="69" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="9">
+        <v>39358</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="49.5" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H13" s="23">
         <v>37948</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="5" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="46.5" customHeight="1">
-      <c r="A13" s="15" t="s">
+    <row r="14" spans="1:11" ht="46.5" customHeight="1">
+      <c r="A14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H14" s="23">
         <v>40268</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I14" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J14" s="23">
         <v>40368</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A14" s="16" t="s">
+    <row r="15" spans="1:11" ht="45.75" customHeight="1">
+      <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="19" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <v>2.46</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H15" s="23">
         <v>40153</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="45" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="23"/>
       <c r="I15" s="12"/>
       <c r="J15" s="23"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="81.75" customHeight="1">
+    <row r="16" spans="1:11" ht="45" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="19"/>
+        <v>103</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="F16" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="12"/>
       <c r="J16" s="23"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="36.75" customHeight="1">
+    <row r="17" spans="1:11" ht="81.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="E17" s="19"/>
       <c r="F17" s="19" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="23">
-        <v>39408</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H17" s="23"/>
       <c r="I17" s="12"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="24.75" customHeight="1">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="36.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="19" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="H18" s="23">
-        <v>40512</v>
+        <v>39408</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="23"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="56.25" customHeight="1">
+    <row r="19" spans="1:11" ht="24.75" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>88</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="19" t="s">
         <v>62</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="H19" s="23">
-        <v>40158</v>
+        <v>40512</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="23"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="79.5" customHeight="1">
+    <row r="20" spans="1:11" ht="56.25" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="F20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="12">
-        <v>1.4</v>
+      <c r="G20" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="H20" s="23">
-        <v>40366</v>
+        <v>40158</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="23"/>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="79.5" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="H21" s="23">
+        <v>40366</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="13"/>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="13"/>
     </row>
   </sheetData>
   <sortState ref="A2:K20">
@@ -1878,45 +1943,47 @@
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-    <hyperlink ref="F14" r:id="rId5"/>
+    <hyperlink ref="D15" r:id="rId4"/>
+    <hyperlink ref="F15" r:id="rId5"/>
     <hyperlink ref="F2" r:id="rId6"/>
-    <hyperlink ref="D13" r:id="rId7"/>
-    <hyperlink ref="E13" r:id="rId8"/>
-    <hyperlink ref="F13" r:id="rId9"/>
-    <hyperlink ref="D12" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="D17" r:id="rId12"/>
-    <hyperlink ref="D18" r:id="rId13"/>
+    <hyperlink ref="D14" r:id="rId7"/>
+    <hyperlink ref="E14" r:id="rId8"/>
+    <hyperlink ref="F14" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="D18" r:id="rId12"/>
+    <hyperlink ref="D19" r:id="rId13"/>
     <hyperlink ref="D4" r:id="rId14"/>
     <hyperlink ref="D5" r:id="rId15"/>
     <hyperlink ref="F5" r:id="rId16"/>
     <hyperlink ref="D6" r:id="rId17"/>
     <hyperlink ref="F4" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D9" r:id="rId20"/>
-    <hyperlink ref="D11" r:id="rId21"/>
-    <hyperlink ref="F11" r:id="rId22"/>
-    <hyperlink ref="D10" r:id="rId23"/>
-    <hyperlink ref="F10" r:id="rId24"/>
-    <hyperlink ref="F16" r:id="rId25"/>
+    <hyperlink ref="D21" r:id="rId19"/>
+    <hyperlink ref="D10" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="F12" r:id="rId22"/>
+    <hyperlink ref="D11" r:id="rId23"/>
+    <hyperlink ref="F11" r:id="rId24"/>
+    <hyperlink ref="F17" r:id="rId25"/>
     <hyperlink ref="D8" r:id="rId26"/>
-    <hyperlink ref="D19" r:id="rId27"/>
-    <hyperlink ref="F17" r:id="rId28"/>
-    <hyperlink ref="F18" r:id="rId29"/>
-    <hyperlink ref="F9" r:id="rId30"/>
+    <hyperlink ref="D20" r:id="rId27"/>
+    <hyperlink ref="F18" r:id="rId28"/>
+    <hyperlink ref="F19" r:id="rId29"/>
+    <hyperlink ref="F10" r:id="rId30"/>
     <hyperlink ref="F6" r:id="rId31"/>
     <hyperlink ref="F7" r:id="rId32"/>
-    <hyperlink ref="F20" r:id="rId33"/>
-    <hyperlink ref="F19" r:id="rId34"/>
-    <hyperlink ref="E19" r:id="rId35"/>
-    <hyperlink ref="D16" r:id="rId36"/>
-    <hyperlink ref="F15" r:id="rId37"/>
-    <hyperlink ref="D15" r:id="rId38"/>
-    <hyperlink ref="E15" r:id="rId39"/>
+    <hyperlink ref="F21" r:id="rId33"/>
+    <hyperlink ref="F20" r:id="rId34"/>
+    <hyperlink ref="E20" r:id="rId35"/>
+    <hyperlink ref="D17" r:id="rId36"/>
+    <hyperlink ref="F16" r:id="rId37"/>
+    <hyperlink ref="D16" r:id="rId38"/>
+    <hyperlink ref="E16" r:id="rId39"/>
+    <hyperlink ref="D9" r:id="rId40"/>
+    <hyperlink ref="E9" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
   <si>
     <t>Lastest Version</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Apache XML Graphics Commons is a library that consists of several reusable components used by Apache Batik and Apache FOP. Many of these components can easily be used separately outside the domains of SVG and XSL-FO. You will find components such as a PDF library, an RTF library, Graphics2D implementations that let you generate PDF &amp; PostScript files, and much more.</t>
-  </si>
-  <si>
-    <t>http://docbook.sourceforge.net/</t>
   </si>
   <si>
     <t>https://javahelp.dev.java.net/</t>
@@ -667,44 +664,69 @@
     <t>1.0-1</t>
   </si>
   <si>
-    <t xml:space="preserve">        2. docbook-dtd
+    <t>DocBook is a schema (available in several languages including RELAX NG, W3C XML Schemas, and XML DTDs) maintained by the DocBook Technical Committee of OASIS. It is particularly well suited to books and papers about computer hardware and software (though it is by no means limited to these applications).</t>
+  </si>
+  <si>
+    <t>http://www.docbook.org/</t>
+  </si>
+  <si>
+    <t>http://www.docbook.org/schemas/4x</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Will be upgraded for the next release cycle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DocBook-XSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1. docbook-xsl</t>
+    </r>
+  </si>
+  <si>
+    <t>Proprietary (MIT like)</t>
+  </si>
+  <si>
+    <t>http://sourceforge.net/projects/docbook/files/</t>
+  </si>
+  <si>
+    <t>http://docbook.sourceforge.net/release/xsl/1.75.2/COPYING</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>DocBook-DTD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    
+   1. docbook-dtd
 </t>
-  </si>
-  <si>
-    <t>DocBook is a schema (available in several languages including RELAX NG, W3C XML Schemas, and XML DTDs) maintained by the DocBook Technical Committee of OASIS. It is particularly well suited to books and papers about computer hardware and software (though it is by no means limited to these applications).</t>
-  </si>
-  <si>
-    <t>http://www.docbook.org/</t>
-  </si>
-  <si>
-    <t>http://www.docbook.org/schemas/4x</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>Will be upgraded for the next release cycle</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DocBook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-        1. docbook-xsl</t>
     </r>
   </si>
 </sst>
@@ -718,7 +740,7 @@
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -759,6 +781,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -774,7 +815,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -806,19 +847,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -832,7 +860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,19 +954,28 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1306,7 +1343,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1326,7 +1363,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -1344,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>13</v>
@@ -1361,10 +1398,10 @@
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>39</v>
@@ -1388,23 +1425,23 @@
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="23">
         <v>40539</v>
@@ -1415,7 +1452,7 @@
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>4</v>
@@ -1439,12 +1476,12 @@
       <c r="I4" s="12"/>
       <c r="J4" s="23"/>
       <c r="K4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>2</v>
@@ -1468,12 +1505,12 @@
       <c r="I5" s="12"/>
       <c r="J5" s="23"/>
       <c r="K5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>1</v>
@@ -1486,10 +1523,10 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" s="23">
         <v>40535</v>
@@ -1497,15 +1534,15 @@
       <c r="I6" s="12"/>
       <c r="J6" s="23"/>
       <c r="K6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="67.5" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>37</v>
@@ -1516,7 +1553,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>15</v>
@@ -1527,68 +1564,72 @@
       <c r="I7" s="12"/>
       <c r="J7" s="23"/>
       <c r="K7" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="60" customHeight="1">
-      <c r="A8" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="36" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A8" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="23">
+      <c r="F8" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="31">
         <v>40483</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="23"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="31"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" s="35" customFormat="1" ht="67.5">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:11" s="38" customFormat="1" ht="67.5">
+      <c r="A9" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="E9" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="12">
         <v>4.5</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="31">
         <v>38993</v>
       </c>
-      <c r="I9" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="33">
+      <c r="I9" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="31">
         <v>39484</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="91.5" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>7</v>
@@ -1601,10 +1642,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="23">
         <v>40371</v>
@@ -1615,23 +1656,23 @@
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="8">
         <v>40578</v>
@@ -1642,23 +1683,23 @@
     </row>
     <row r="12" spans="1:11" ht="69" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="9">
         <v>39358</v>
@@ -1669,13 +1710,13 @@
     </row>
     <row r="13" spans="1:11" ht="49.5" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>32</v>
@@ -1685,7 +1726,7 @@
         <v>33</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H13" s="23">
         <v>37948</v>
@@ -1693,15 +1734,15 @@
       <c r="I13" s="12"/>
       <c r="J13" s="23"/>
       <c r="K13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="46.5" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>31</v>
@@ -1722,13 +1763,13 @@
         <v>40268</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="23">
         <v>40368</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45.75" customHeight="1">
@@ -1739,7 +1780,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>26</v>
@@ -1760,25 +1801,25 @@
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1">
       <c r="A16" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="G16" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="12"/>
@@ -1787,23 +1828,23 @@
     </row>
     <row r="17" spans="1:11" ht="81.75" customHeight="1">
       <c r="A17" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="12"/>
@@ -1812,10 +1853,10 @@
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>37</v>
@@ -1825,7 +1866,7 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>36</v>
@@ -1839,10 +1880,10 @@
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>37</v>
@@ -1852,10 +1893,10 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" s="23">
         <v>40512</v>
@@ -1866,25 +1907,25 @@
     </row>
     <row r="20" spans="1:11" ht="56.25" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="19" t="s">
+      <c r="G20" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="H20" s="23">
         <v>40158</v>
@@ -1895,7 +1936,7 @@
     </row>
     <row r="21" spans="1:11" ht="79.5" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>41</v>
@@ -1908,7 +1949,7 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="12">
         <v>1.4</v>
@@ -1919,7 +1960,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="23"/>
       <c r="K21" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -1965,25 +2006,27 @@
     <hyperlink ref="D11" r:id="rId23"/>
     <hyperlink ref="F11" r:id="rId24"/>
     <hyperlink ref="F17" r:id="rId25"/>
-    <hyperlink ref="D8" r:id="rId26"/>
-    <hyperlink ref="D20" r:id="rId27"/>
-    <hyperlink ref="F18" r:id="rId28"/>
-    <hyperlink ref="F19" r:id="rId29"/>
-    <hyperlink ref="F10" r:id="rId30"/>
-    <hyperlink ref="F6" r:id="rId31"/>
-    <hyperlink ref="F7" r:id="rId32"/>
-    <hyperlink ref="F21" r:id="rId33"/>
-    <hyperlink ref="F20" r:id="rId34"/>
-    <hyperlink ref="E20" r:id="rId35"/>
-    <hyperlink ref="D17" r:id="rId36"/>
-    <hyperlink ref="F16" r:id="rId37"/>
-    <hyperlink ref="D16" r:id="rId38"/>
-    <hyperlink ref="E16" r:id="rId39"/>
-    <hyperlink ref="D9" r:id="rId40"/>
-    <hyperlink ref="E9" r:id="rId41"/>
+    <hyperlink ref="D20" r:id="rId26"/>
+    <hyperlink ref="F18" r:id="rId27"/>
+    <hyperlink ref="F19" r:id="rId28"/>
+    <hyperlink ref="F10" r:id="rId29"/>
+    <hyperlink ref="F6" r:id="rId30"/>
+    <hyperlink ref="F7" r:id="rId31"/>
+    <hyperlink ref="F21" r:id="rId32"/>
+    <hyperlink ref="F20" r:id="rId33"/>
+    <hyperlink ref="E20" r:id="rId34"/>
+    <hyperlink ref="D17" r:id="rId35"/>
+    <hyperlink ref="F16" r:id="rId36"/>
+    <hyperlink ref="D16" r:id="rId37"/>
+    <hyperlink ref="E16" r:id="rId38"/>
+    <hyperlink ref="D8" r:id="rId39"/>
+    <hyperlink ref="E8" r:id="rId40"/>
+    <hyperlink ref="F8" r:id="rId41"/>
+    <hyperlink ref="D9" r:id="rId42"/>
+    <hyperlink ref="E9" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId44"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/licenses/twe-includes.xlsx
+++ b/licenses/twe-includes.xlsx
@@ -626,9 +626,6 @@
     <t>5.0.6</t>
   </si>
   <si>
-    <t>1.1-1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -728,6 +725,9 @@
    1. docbook-dtd
 </t>
     </r>
+  </si>
+  <si>
+    <t>1.2-1</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1569,22 +1569,22 @@
     </row>
     <row r="8" spans="1:11" s="36" customFormat="1" ht="47.25" customHeight="1">
       <c r="A8" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="35" t="s">
+      <c r="F8" s="35" t="s">
         <v>112</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>113</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>90</v>
@@ -1598,17 +1598,17 @@
     </row>
     <row r="9" spans="1:11" s="38" customFormat="1" ht="67.5">
       <c r="A9" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>106</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>107</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="12">
@@ -1618,13 +1618,13 @@
         <v>38993</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J9" s="31">
         <v>39484</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="91.5" customHeight="1">
@@ -1801,25 +1801,25 @@
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1">
       <c r="A16" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="12"/>
@@ -1844,7 +1844,7 @@
         <v>46</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="12"/>
